--- a/src/main/webapp/template/지원사업관리양식.xlsx
+++ b/src/main/webapp/template/지원사업관리양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctns/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctns/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC321FC6-CFE7-C84B-A51F-67C17ECA1336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E4F530-E4E0-B143-996C-4776481B0AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52100" yWindow="12260" windowWidth="27500" windowHeight="16440" xr2:uid="{489728D1-49E8-C748-B6A5-530BFB763484}"/>
+    <workbookView xWindow="52660" yWindow="17380" windowWidth="28800" windowHeight="26600" xr2:uid="{489728D1-49E8-C748-B6A5-530BFB763484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,40 +43,66 @@
     <t>기관</t>
   </si>
   <si>
+    <t>금액</t>
+  </si>
+  <si>
+    <t>지역코드</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>모바일주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피시주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감일</t>
+  </si>
+  <si>
+    <t>생성일</t>
+  </si>
+  <si>
+    <t>활성화여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>분류</t>
-  </si>
-  <si>
-    <t>금액</t>
-  </si>
-  <si>
-    <t>지역코드</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>모바일주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피시주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마감일</t>
-  </si>
-  <si>
-    <t>생성일</t>
-  </si>
-  <si>
-    <t>활성화여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +123,13 @@
       <color rgb="FF444444"/>
       <name val="Play"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,11 +174,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBBBA2-968F-1D4C-8188-CC6760D1E15F}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -471,39 +506,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
